--- a/medicine/Psychotrope/Winfield_(cigarette)/Winfield_(cigarette).xlsx
+++ b/medicine/Psychotrope/Winfield_(cigarette)/Winfield_(cigarette).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Winfield est une marque de cigarettes vendue notamment en Australie et en Nouvelle-Zélande.
 Elles sont manufacturées sous licence de British American Tobacco. La marque existe en Australie depuis 1972.
@@ -515,7 +527,9 @@
           <t>Winfield et les sports mécaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Winfield était un sponsor majeur du sport en Australie jusqu'à ce qu'il soit interdit par la loi de 1992 sur l'interdiction de la publicité sur le tabac, qui interdisait toute publicité et parrainage pour le tabac à partir de décembre 1995. Certaines exemptions limitées ont été accordées pour le Grand Prix d'Australie et l'Australian Open Golf, c'est pourquoi Winfield a été vu au Grand Prix d'Australie en 1998 et 1999 alors qu'il était le sponsor en titre de l'équipe Williams F1.
 Winfield était le sponsor principal de l' équipe Williams F1 en 1998 et 1999. Le parrainage faisait partie de l'accord signé par Williams avec la société mère de Winfield, Rothmans International, dont la marque phare avait sponsorisé l'équipe championne du monde à plusieurs reprises depuis 1994. Parmi les pilotes qui ont couru sous les couleurs de Winfield pour Williams figuraient l'ancien champion du monde Jacques Villeneuve et l'ancien champion de la série IndyCar Alex Zanardi. L'arrangement a pris fin après la saison 1999, car British American Tobacco avait acheté Rothmans International, et puisqu'ils étaient déjà propriétaires de leur propre opération de Formule 1, ils ont plutôt choisi de concentrer leur sponsoring sur leur propre équipe.
